--- a/EcologyBias.Daneshgar.Popo (2).xlsx
+++ b/EcologyBias.Daneshgar.Popo (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/odalysbar/Documents/monmouthuni/MA321-FA20/MA321-Daneshgar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B5640-72F3-8F48-8808-0A0C6F33549E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA950409-986A-6A45-B863-DCADF0522A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
